--- a/src/main/java/com/facebook/qa/testdata/facebook.xlsx
+++ b/src/main/java/com/facebook/qa/testdata/facebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="4125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="2" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:J12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>firstName</t>
   </si>
@@ -76,9 +77,6 @@
   </si>
   <si>
     <t>aug</t>
-  </si>
-  <si>
-    <t>pwd</t>
   </si>
   <si>
     <t>Piya123</t>
@@ -428,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -443,7 +441,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -459,7 +457,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +559,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>21</v>
